--- a/Mifos Automation Excels/Client/4272-MS-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4272-MS-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -208,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -359,6 +364,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -406,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,9 +447,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,6 +499,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,10 +850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,12 +870,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -873,17 +916,18 @@
       <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="14">
@@ -908,9 +952,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -948,14 +993,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -991,14 +1037,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1034,14 +1081,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1077,14 +1125,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1120,14 +1169,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1163,14 +1213,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1206,14 +1257,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1249,14 +1301,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1292,14 +1345,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1335,14 +1389,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1378,14 +1433,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1421,10 +1477,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>903.73</v>
       </c>
     </row>
@@ -1935,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4272-MS-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4272-MS-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -213,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,12 +220,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -309,10 +298,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -330,9 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -346,7 +332,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -414,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,26 +433,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,23 +468,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -728,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -763,7 +715,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -773,7 +725,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>9214.42</v>
       </c>
       <c r="F2" s="3">
@@ -839,9 +791,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -930,13 +879,13 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -962,17 +911,17 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>42036</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="3">
         <v>785.58</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>9214.42</v>
       </c>
       <c r="H3" s="3">
@@ -1008,7 +957,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -1016,7 +965,7 @@
       <c r="F4" s="3">
         <v>802.89</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>8411.5300000000007</v>
       </c>
       <c r="H4" s="3">
@@ -1052,7 +1001,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -1060,7 +1009,7 @@
       <c r="F5" s="3">
         <v>793.81</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>7617.72</v>
       </c>
       <c r="H5" s="3">
@@ -1096,7 +1045,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1104,7 +1053,7 @@
       <c r="F6" s="3">
         <v>812.59</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>6805.13</v>
       </c>
       <c r="H6" s="3">
@@ -1140,7 +1089,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1148,7 +1097,7 @@
       <c r="F7" s="3">
         <v>818.36</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>5986.77</v>
       </c>
       <c r="H7" s="3">
@@ -1184,7 +1133,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1192,7 +1141,7 @@
       <c r="F8" s="3">
         <v>828.68</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>5158.09</v>
       </c>
       <c r="H8" s="3">
@@ -1228,7 +1177,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1236,7 +1185,7 @@
       <c r="F9" s="3">
         <v>835.15</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>4322.9399999999996</v>
       </c>
       <c r="H9" s="3">
@@ -1272,7 +1221,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1280,7 +1229,7 @@
       <c r="F10" s="3">
         <v>843.66</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>3479.28</v>
       </c>
       <c r="H10" s="3">
@@ -1316,7 +1265,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1324,7 +1273,7 @@
       <c r="F11" s="3">
         <v>853.4</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2625.88</v>
       </c>
       <c r="H11" s="3">
@@ -1360,7 +1309,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1368,7 +1317,7 @@
       <c r="F12" s="3">
         <v>860.96</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>1764.92</v>
       </c>
       <c r="H12" s="3">
@@ -1404,7 +1353,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1448,7 +1397,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1552,7 +1501,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42095</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1576,8 +1525,8 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1586,7 +1535,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42064</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1610,8 +1559,8 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1620,7 +1569,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1641,11 +1590,11 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>9214.42</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1654,7 +1603,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1678,8 +1627,8 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1688,13 +1637,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>42005</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>10000</v>
       </c>
       <c r="F6" s="3">
@@ -1709,7 +1658,7 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1741,31 +1690,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1776,7 +1725,7 @@
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1803,7 +1752,7 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1848,31 +1797,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1883,7 +1832,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1910,7 +1859,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1937,7 +1886,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1964,7 +1913,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2010,31 +1959,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2045,7 +1994,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2072,7 +2021,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2099,7 +2048,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2126,7 +2075,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2153,7 +2102,7 @@
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42064</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2180,7 +2129,7 @@
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42064</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2207,7 +2156,7 @@
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42095</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2222,7 +2171,7 @@
       <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="3"/>
@@ -2234,7 +2183,7 @@
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42095</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2250,7 +2199,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>60</v>
       </c>
     </row>
